--- a/table-generator/src/test/resources/test_data/test_table_without_numeric_id.xlsx
+++ b/table-generator/src/test/resources/test_data/test_table_without_numeric_id.xlsx
@@ -38,7 +38,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>root-code-name.common-code-name-1</t>
+    <t>common-code-name-1</t>
   </si>
   <si>
     <t>Message for CName1 error.</t>
@@ -50,13 +50,13 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>root-code-name.common-code-name-1.common-code-name-2</t>
+    <t>common-code-name-1.common-code-name-2</t>
   </si>
   <si>
     <t>CName2Exception</t>
   </si>
   <si>
-    <t>root-code-name.common-code-name-1.common-code-name-2.common-code-name-3-1</t>
+    <t>common-code-name-1.common-code-name-2.common-code-name-3-1</t>
   </si>
   <si>
     <t>Message for CName3_1 error.</t>
@@ -65,7 +65,7 @@
     <t>CName3_1Exception</t>
   </si>
   <si>
-    <t>root-code-name.common-code-name-1.common-code-name-2.common-code-name-3-2</t>
+    <t>common-code-name-1.common-code-name-2.common-code-name-3-2</t>
   </si>
   <si>
     <t>CName3_2: {param1: '%s', param2: %d, param3: '%s'}</t>
@@ -74,7 +74,7 @@
     <t>CName3_2Exception</t>
   </si>
   <si>
-    <t>root-code-name.common-code-name-1.common-code-name-2.common-code-name-3-3</t>
+    <t>common-code-name-1.common-code-name-2.common-code-name-3-3</t>
   </si>
   <si>
     <t>TestMessageGeneratorObject1</t>
@@ -83,7 +83,7 @@
     <t>CName3_3Exception</t>
   </si>
   <si>
-    <t>root-code-name.error-code-name-1</t>
+    <t>error-code-name-1</t>
   </si>
   <si>
     <t>Message for EName1 error.</t>
@@ -92,13 +92,13 @@
     <t>EName1Exception</t>
   </si>
   <si>
-    <t>root-code-name.error-code-name-1.error-code-name-2</t>
+    <t>error-code-name-1.error-code-name-2</t>
   </si>
   <si>
     <t>EName2Exception</t>
   </si>
   <si>
-    <t>root-code-name.error-code-name-1.error-code-name-2.error-code-name-3-1</t>
+    <t>error-code-name-1.error-code-name-2.error-code-name-3-1</t>
   </si>
   <si>
     <t>Message for EName3_1 error.</t>
@@ -107,7 +107,7 @@
     <t>EName3_1Exception</t>
   </si>
   <si>
-    <t>root-code-name.error-code-name-1.error-code-name-2.error-code-name-3-2</t>
+    <t>error-code-name-1.error-code-name-2.error-code-name-3-2</t>
   </si>
   <si>
     <t>EName3_2: {param1: '%s', param2: %d, param3: '%s'}</t>
@@ -116,7 +116,7 @@
     <t>EName3_2Exception</t>
   </si>
   <si>
-    <t>root-code-name.error-code-name-1.error-code-name-2.error-code-name-3-3</t>
+    <t>error-code-name-1.error-code-name-2.error-code-name-3-3</t>
   </si>
   <si>
     <t>TestMessageGeneratorObject2</t>
@@ -125,7 +125,7 @@
     <t>EName3_3Exception</t>
   </si>
   <si>
-    <t>root-code-name.error-2-code-name-1</t>
+    <t>error-2-code-name-1</t>
   </si>
   <si>
     <t>Message for E2Name1 error.</t>
@@ -134,13 +134,13 @@
     <t>E2Name1Exception</t>
   </si>
   <si>
-    <t>root-code-name.error-2-code-name-1.error-2-code-name-2</t>
+    <t>error-2-code-name-1.error-2-code-name-2</t>
   </si>
   <si>
     <t>E2Name2Exception</t>
   </si>
   <si>
-    <t>root-code-name.error-2-code-name-1.error-2-code-name-2.error-2-code-name-3-1</t>
+    <t>error-2-code-name-1.error-2-code-name-2.error-2-code-name-3-1</t>
   </si>
   <si>
     <t>Message for E2Name3_1 error.</t>
@@ -149,7 +149,7 @@
     <t>E2Name3_1Exception</t>
   </si>
   <si>
-    <t>root-code-name.error-2-code-name-1.error-2-code-name-2.error-2-code-name-3-2</t>
+    <t>error-2-code-name-1.error-2-code-name-2.error-2-code-name-3-2</t>
   </si>
   <si>
     <t>E2Name3_2: {param1: '%s', param2: %d, param3: '%s'}</t>
@@ -158,7 +158,7 @@
     <t>E2Name3_2Exception</t>
   </si>
   <si>
-    <t>root-code-name.error-2-code-name-1.error-2-code-name-2.error-2-code-name-3-3</t>
+    <t>error-2-code-name-1.error-2-code-name-2.error-2-code-name-3-3</t>
   </si>
   <si>
     <t>TestMessageGeneratorObject3</t>
@@ -264,7 +264,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
